--- a/KanBan-App/Documents/Zeitmanagement/Arbeitspaketbeschreibungen_als_Excel.xlsx
+++ b/KanBan-App/Documents/Zeitmanagement/Arbeitspaketbeschreibungen_als_Excel.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>Vorgangsname</t>
   </si>
@@ -253,13 +253,85 @@
   </si>
   <si>
     <t>Arbeitspaketbeschreibung</t>
+  </si>
+  <si>
+    <t>Hierbei handelt es sich um eine Unterrichtseinheit bei Hr. Yass</t>
+  </si>
+  <si>
+    <t>Hierbei handelte es sich um eine Unterrichtseinheit bei Hr. Yass - Nach dem Umplanung wurde diese Einheit freigegeben</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Die Vorgaben des Unterrichts werden besprochen aber abgewogen. Am Ende entscheidet man sich für einen Vorschlag (KanKan-Board oder Scrum-Lernprogramm)</t>
+  </si>
+  <si>
+    <t>Nachdem entschieden wurde welches Projekt umgesetzt wird müssen nun Ideen für das Projekt gesammelt werden. Jeder Projektmitarbeiter entwickelt eigenständig Idee über die mögliche Umsetzung der Software</t>
+  </si>
+  <si>
+    <t>Die gesammelten Ideen der einzelnen Projektmitarbeiten müssen in diesem Arbeitspaket besprochen und bewertet werden. Mindestanforderungen und mögliche Optionale Ergänzungen werden diskutiert und bewertet um diese anschließend in der Projektdefinition festzuhalten.</t>
+  </si>
+  <si>
+    <t>Da wird uns für das KanBan-Board entschieden haben muss nun über KanBan recherchiert werden. Ebenso werden bereits vorhandene ähnlich Apps im Store angesehen und analysiert. (Beispielsweise "KanBanBoard" von "giApps")</t>
+  </si>
+  <si>
+    <t>In diesem Arbeitspaket muss über das Frontend-Framework Universal Windows Platform recherchiert werden. Mögliche Designpatterns werden analysiert und im Team besprochen.</t>
+  </si>
+  <si>
+    <t>In diesem Arbeitspaket muss über die relativ neue Technologie .NET Core, eine modulare Abwandlung des .NET Frameworks, recherchiert werden. Design-Patterns und Technologie wie das EntityFramework müssen angesehen und deren mögliche Verwendung bewertet werden.</t>
+  </si>
+  <si>
+    <t>Als Persistenzschicht wurde SQLite ausgewählt, eine Datenbank die auch speziell in mobilen Frontend Anwendungen häufig eingesetzt wird. Die Ansteuerung über das .NET Core Backend muss analysiert und bewertet werden.</t>
+  </si>
+  <si>
+    <t>Hierbei handelt es sich um ein Teammeeting. Zum Abschluss des Meetings wird ein Protokoll erstellt.</t>
+  </si>
+  <si>
+    <t>Der Projektstrukturplan muss erstellt werden. Hierfür wird MS-Projekt eingesetzt. Der PSP wird im Laufe der Projektes noch weiter entwickelt und eventuell umgestaltet.</t>
+  </si>
+  <si>
+    <t>Die Arbeitpakete müssen beschrieben werde, sodass jeder Mitarbeiter genau weis, was zu tun ist wenn ihm ein Arbeitspaket zugeordnet wird.</t>
+  </si>
+  <si>
+    <t>Ein extra Zeitplan in Excelform muss erstellt werden, in welche die Teammitglieder ihre investierten Stunden eintragen können.</t>
+  </si>
+  <si>
+    <t>Die Projektdefinition muss geschrieben werden. Hier werden Zielgruppe, Technologien und Kernfeatures festgehalten. Ebenso werden einige Optionale Features beschrieben.</t>
+  </si>
+  <si>
+    <t>Die in der Projektdefinition festgelegten Hauptfeatures des Programms sollen mit Programmablaufdiagrammen beschrieben werden.</t>
+  </si>
+  <si>
+    <t>Das zugrunde liegende Datenmodell muss in diesem Arbeitspaket festgelegt werden. Hierzu soll ein UML oder Entity Diagramm verwendet werden.</t>
+  </si>
+  <si>
+    <t>Simple Codestandards werden festgelegt und beschrieben.</t>
+  </si>
+  <si>
+    <t>Die zu verwendenden Technologien müssen festegelegt werden. Hier zählen auch Nuget Packages von denen bereits bekannt ist, dass sie verwendet werden und etwaige Zusatzsoftware dazu.</t>
+  </si>
+  <si>
+    <t>Das vorher festgelegte Datenmodell muss in diesem Arbeitspaket als SQLite Datenbank umgesetzt werden. Auf Beziehungen zwischen den Entitäten ist zu achten.</t>
+  </si>
+  <si>
+    <t>Die erstellte Datenbank muss per Entity-Framework (Entity-Relationship-Mapper) mit dem Backend verknüpft werden. Aufgrund der frühen Version des EF in Verbindung mit .NET Core ist dieses Arbeitpaket einzeln, da dort noch viele Fehlerquellen zu erwarten sind. (siehe: https://github.com/aspnet/EntityFramework.Docs/blob/master/docs/platforms/netcore/new-db-sqlite.rst)</t>
+  </si>
+  <si>
+    <t>Hier müssen die Routen implementiert werden, auf die das Frontend zugreift. Da das Team bisher keine Erfahrung mit einer REST-Api mit den zugrunde liegenden Technologie kann dieses Arbeitspaket nicht in kleinere Teile aufgeteilt werden.</t>
+  </si>
+  <si>
+    <t>Die Abschlusspräsentation muss erstellt werden. Format: PowerPoint</t>
+  </si>
+  <si>
+    <t>Die Abschlusspräsentation muss hier gehalten werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -349,6 +421,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -462,7 +537,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -656,29 +731,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="57.875" customWidth="1"/>
     <col min="6" max="6" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,367 +767,429 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="90">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="90">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="90">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="120">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="135">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="195">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="165">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="120">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="180">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="150">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="60">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="60">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="60">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="60">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="120">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="105">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="90">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="120">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="105">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1064,39 +1201,45 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="105">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1108,7 +1251,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1120,7 +1263,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1132,7 +1275,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1144,7 +1287,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1156,7 +1299,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1168,7 +1311,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +1323,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1192,7 +1335,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -1204,17 +1347,19 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -1226,61 +1371,71 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="45">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="135">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>43</v>
       </c>
@@ -1292,7 +1447,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -1304,7 +1459,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -1316,7 +1471,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -1328,7 +1483,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>46</v>
       </c>
@@ -1340,7 +1495,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -1352,7 +1507,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>47</v>
       </c>
@@ -1364,7 +1519,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -1376,7 +1531,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
@@ -1388,7 +1543,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -1400,7 +1555,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>49</v>
       </c>
@@ -1412,7 +1567,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -1424,7 +1579,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -1436,7 +1591,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -1448,7 +1603,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
@@ -1460,7 +1615,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -1472,7 +1627,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>42</v>
       </c>
@@ -1484,7 +1639,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -1496,43 +1651,58 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C72" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="90">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C73" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="60">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
@@ -1540,33 +1710,45 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B80" s="3"/>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KanBan-App/Documents/Zeitmanagement/Arbeitspaketbeschreibungen_als_Excel.xlsx
+++ b/KanBan-App/Documents/Zeitmanagement/Arbeitspaketbeschreibungen_als_Excel.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,8 +10,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="123">
   <si>
     <t>Vorgangsname</t>
   </si>
@@ -325,13 +325,76 @@
   </si>
   <si>
     <t>Die Abschlusspräsentation muss hier gehalten werden.</t>
+  </si>
+  <si>
+    <t>Skizze zum Anmelden wird erstellt. Darauf sollten sich eine Textbox für Email, eine Passwortbox fürs Passwort und jeweils 1 Button für Anmelden und Registrieren befinden.</t>
+  </si>
+  <si>
+    <t>Skizze zum Registrieren wird erstellt. Darauf sollten sich eine Textbox für Email, zwei Passwortboxen für Passwort und Passwort wiederholen und ein Button für Registrieren befinden.</t>
+  </si>
+  <si>
+    <t>Skizze zur Hauptmaske wird erstellt. Darauf sollte sich eine Liste der Boards und eine Appbar befinden. Die Appbar sollte Buttons für "Board ansehen", "Board löschen", "Neues Board" und "Abmelden" enthalten. Dialoge zu den jeweiligen Button sollen erstellt werden, wenn Ergonomisch bedingt.</t>
+  </si>
+  <si>
+    <t>Skizze zur Teamverwaltung wird erstellt. Darauf sollte sich eine Liste von Teammitgliedern und eine Appbar befinden. Die Appbar sollte Buttons für "Teammitglied hinzufügen","Teammitglied entfernen","Gruppenleiter ernennen","Gruppe auflösen" und "Gruppe verlassen" enthalten. Dialoge zu den jeweiligen Button sollen erstellt werden, wenn Ergonomisch bedingt.</t>
+  </si>
+  <si>
+    <t>Skizze zu den Boardeinstellungen wird erstellt. Darauf sollten sich drei Regler befinden die jeweils die besprochenen Einstellungen einstellen.</t>
+  </si>
+  <si>
+    <t>Skizze zu der To-Do Pivot Ansicht soll erstellt werden. Darin sollte sich eine Liste von Tickets und eine Appbar befinden. Die Appbar sollte Buttons enthalten die zur Teamverwaltungsansicht und zu den Einstellungen führen und für "Ticket bearbeiten","Ticket löschen" und "Ticket erstellen" enthalten. Dialoge zu den jeweiligen Button sollen erstellt werden, wenn Ergonomisch bedingt. Elemente der Listbox sollten ein Menü öffnen können für "Upvote", "Downvote" und "Nach In-Progress verschieben".</t>
+  </si>
+  <si>
+    <t>Skizze zu der In-Progress Pivot Ansicht soll erstellt werden. Darin sollte sich eine Liste von Tickets und eine Appbar befinden. Die Appbar sollte Buttons enthalten die zur Teamverwaltungsansicht und zu den Einstellungen führen und für "Ticket ansehen", "Für Ticket Registrieren" und "Ticket zuweisen" enthalten. Ticket zuweisen sollte eine Liste von Teammitgliedern anzeigen.</t>
+  </si>
+  <si>
+    <t>Skizze zu der Done Pivot Ansicht soll erstellt werden. Darin sollte sich eine Liste von Tickets und eine Appbar befinden. DieAppbar sollte Buttons enthalten die zur Teamverwaltungsansicht und zu den Einstellungen führen und für "Ticket archivieren" und "Ticket ansehen" enthalten.</t>
+  </si>
+  <si>
+    <t>Skizze zur Einzel Ticket Ansicht soll erstellt werden. Darin sollte sich der Ticketname, Beschreibung, Status des Tickets enthalten sein. Sollte der Status "To-Do" sein so werden Upvotes und Downvotes angezeigt. Dementsprechen sollte "In Progress" die Möglichekeit sicht für ein Ticket zu registrieren und Teammitglieder zuteilen beinhalten. Im Status "Done" fällt die Möglichkeit das Ticket zu entfernen weg.</t>
+  </si>
+  <si>
+    <t>Die Farben der GUI werden festgelegt.</t>
+  </si>
+  <si>
+    <t>Skizze der Hauptmaskewird realisiert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Besprochene Logik wird implementiert.</t>
+  </si>
+  <si>
+    <t>Skizze der Teamverwaltungsansicht wird realisiert.</t>
+  </si>
+  <si>
+    <t>Skizze der To-Do Pivot Ansicht wird realisiert.</t>
+  </si>
+  <si>
+    <t>Skizze der In-Progress Pivot Ansicht wird realisiert.</t>
+  </si>
+  <si>
+    <t>Skizze der Done Pivot Ansicht wird realisiert.</t>
+  </si>
+  <si>
+    <t>Skizze der Einzel Ticket Ansicht wird realisiert.</t>
+  </si>
+  <si>
+    <t>Skizze der Board-Einstellungen wird realisiert.</t>
+  </si>
+  <si>
+    <t>Skizze zum Anmelden wird realisiert.</t>
+  </si>
+  <si>
+    <t>Skizze zum Registrieren wird realisiert.</t>
+  </si>
+  <si>
+    <t>Logo wird erstellt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,21 +794,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
@@ -753,7 +816,7 @@
     <col min="6" max="6" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +830,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -779,7 +842,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -793,7 +856,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -807,7 +870,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -821,7 +884,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -835,7 +898,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -849,7 +912,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -863,7 +926,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="90">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -877,7 +940,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="90">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -891,7 +954,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="90">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -905,7 +968,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -917,7 +980,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="120">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -931,7 +994,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="135">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -945,7 +1008,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="195">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -959,7 +1022,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="165">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -973,7 +1036,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -985,7 +1048,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="120">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1062,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="180">
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1076,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="150">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1027,7 +1090,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1102,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="60">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1116,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="60">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1067,7 +1130,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="60">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1144,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="60">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1158,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1107,7 +1170,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="120">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1121,7 +1184,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="105">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1198,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="90">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1149,7 +1212,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="120">
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1226,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -1175,7 +1238,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="105">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1189,7 +1252,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1201,7 +1264,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="105">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1278,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -1227,7 +1290,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -1239,115 +1302,133 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -1359,19 +1440,21 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" ht="45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1385,7 +1468,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="135">
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1399,7 +1482,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -1411,7 +1494,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -1423,7 +1506,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -1435,223 +1518,259 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>67</v>
       </c>
@@ -1660,7 +1779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="45">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
@@ -1671,7 +1790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="90">
+    <row r="73" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
@@ -1682,7 +1801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="60">
+    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
@@ -1693,7 +1812,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>71</v>
       </c>
@@ -1702,15 +1821,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="C76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>73</v>
       </c>
@@ -1719,7 +1841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
@@ -1730,7 +1852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
@@ -1741,7 +1863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>

--- a/KanBan-App/Documents/Zeitmanagement/Arbeitspaketbeschreibungen_als_Excel.xlsx
+++ b/KanBan-App/Documents/Zeitmanagement/Arbeitspaketbeschreibungen_als_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="130">
   <si>
     <t>Vorgangsname</t>
   </si>
@@ -192,36 +192,6 @@
     <t xml:space="preserve">   Frontend implementieren</t>
   </si>
   <si>
-    <t xml:space="preserve">      Hauptmaske Logik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Teamverwaltungsansicht Logik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      To-Do-Ansicht Logik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      In-Progress-Ansicht Logik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Done-Ansicht Logik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Einzel Ticket-Ansicht Logik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Board-Einstellungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Board-Einstellungen Logik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Anmeldebildschirm Logik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Registrierungsbildschirm Logik</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Backend implementieren</t>
   </si>
   <si>
@@ -315,9 +285,6 @@
     <t>Das vorher festgelegte Datenmodell muss in diesem Arbeitspaket als SQLite Datenbank umgesetzt werden. Auf Beziehungen zwischen den Entitäten ist zu achten.</t>
   </si>
   <si>
-    <t>Die erstellte Datenbank muss per Entity-Framework (Entity-Relationship-Mapper) mit dem Backend verknüpft werden. Aufgrund der frühen Version des EF in Verbindung mit .NET Core ist dieses Arbeitpaket einzeln, da dort noch viele Fehlerquellen zu erwarten sind. (siehe: https://github.com/aspnet/EntityFramework.Docs/blob/master/docs/platforms/netcore/new-db-sqlite.rst)</t>
-  </si>
-  <si>
     <t>Hier müssen die Routen implementiert werden, auf die das Frontend zugreift. Da das Team bisher keine Erfahrung mit einer REST-Api mit den zugrunde liegenden Technologie kann dieses Arbeitspaket nicht in kleinere Teile aufgeteilt werden.</t>
   </si>
   <si>
@@ -357,37 +324,91 @@
     <t>Die Farben der GUI werden festgelegt.</t>
   </si>
   <si>
-    <t>Skizze der Hauptmaskewird realisiert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Besprochene Logik wird implementiert.</t>
-  </si>
-  <si>
-    <t>Skizze der Teamverwaltungsansicht wird realisiert.</t>
-  </si>
-  <si>
-    <t>Skizze der To-Do Pivot Ansicht wird realisiert.</t>
-  </si>
-  <si>
-    <t>Skizze der In-Progress Pivot Ansicht wird realisiert.</t>
-  </si>
-  <si>
-    <t>Skizze der Done Pivot Ansicht wird realisiert.</t>
-  </si>
-  <si>
-    <t>Skizze der Einzel Ticket Ansicht wird realisiert.</t>
-  </si>
-  <si>
-    <t>Skizze der Board-Einstellungen wird realisiert.</t>
-  </si>
-  <si>
-    <t>Skizze zum Anmelden wird realisiert.</t>
-  </si>
-  <si>
-    <t>Skizze zum Registrieren wird realisiert.</t>
-  </si>
-  <si>
     <t>Logo wird erstellt.</t>
+  </si>
+  <si>
+    <t>Die erstellte Datenbank muss per Entity-Framework (Entity-Relationship-Modell) mit dem Backend verknüpft werden. Aufgrund der frühen Version des EF in Verbindung mit .NET Core sind in diesem Arbeitspaket viele Fehler zu erwarten. (siehe: https://github.com/aspnet/EntityFramework.Docs/blob/master/docs/platforms/netcore/new-db-sqlite.rst)</t>
+  </si>
+  <si>
+    <t>Qualifikation</t>
+  </si>
+  <si>
+    <t>Keine besondere Qualifikation notwendig.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse mit MS-Projekt wünschenswert.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse mit Excel wünschenswert.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in Datenstrukturen bzw. Datenbanken notwendig.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in Softwareergonomie und Design notwendig.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in Design notwendig.</t>
+  </si>
+  <si>
+    <t>Programmierkenntnisse in C# notwendig.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in Software-Engineering notwendig.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in Frontend Entwicklung im .NET Framework notwenig. Kenntnisse von UWP wünschenswert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Anmeldebildschirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Registrierungsbildschirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Teamverwaltungsansicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Hauptmaske</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Board-Einstellungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Einzel Ticket-Ansicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   To-Do-Ansicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   In-Progress-Ansicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Done-Ansicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Routen Umbau: RESTful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgrund eines Fehlers müssen die vorhandenen Routen umgebaut werden. Diese ware nicht REST-konform. </t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in REST-APIs und C# notwendig.</t>
+  </si>
+  <si>
+    <t>Die UI muss gemäß den Mockups umgesetzt werden.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in Datenbanken und .NET Core notwendig, Erfahrung mit Entity-Frameworks wünschenswert.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in SQLite notwendig.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in PowerPoint notwendig.</t>
+  </si>
+  <si>
+    <t>Vorkenntnisse in Soft-Skills wünschenswert.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -467,11 +488,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1BBCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -487,6 +547,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -600,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -802,21 +883,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="57.875" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,25 +907,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -850,13 +937,15 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -864,13 +953,15 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -878,13 +969,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -892,13 +985,15 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -906,13 +1001,15 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -920,13 +1017,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -934,13 +1033,15 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -948,13 +1049,15 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -962,25 +1065,29 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -988,13 +1095,15 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1002,13 +1111,15 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1016,13 +1127,15 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1030,25 +1143,29 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1056,13 +1173,15 @@
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1070,13 +1189,15 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1084,25 +1205,29 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1110,13 +1235,15 @@
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1124,13 +1251,15 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1138,13 +1267,15 @@
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1152,25 +1283,29 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1178,13 +1313,15 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1192,13 +1329,15 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1206,13 +1345,15 @@
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1220,25 +1361,29 @@
         <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1246,13 +1391,15 @@
         <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1260,11 +1407,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1272,37 +1421,43 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1310,13 +1465,15 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1324,13 +1481,15 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1338,13 +1497,15 @@
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1352,13 +1513,15 @@
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1366,13 +1529,15 @@
         <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1380,13 +1545,15 @@
         <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1394,13 +1561,15 @@
         <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1408,13 +1577,15 @@
         <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -1422,25 +1593,29 @@
         <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -1448,13 +1623,15 @@
         <v>37</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1462,13 +1639,15 @@
         <v>33</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1476,400 +1655,346 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="C61" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="10"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="B71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" t="s">
-        <v>80</v>
+      <c r="B72" s="3"/>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
